--- a/outputs/house_democrats_committee_votes.xlsx
+++ b/outputs/house_democrats_committee_votes.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="6660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14415" windowHeight="10080"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -575,6 +575,9 @@
       <c r="D2">
         <v>0.5</v>
       </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
       <c r="G2">
         <v>1</v>
       </c>
@@ -642,6 +645,9 @@
       <c r="T4">
         <v>0.5</v>
       </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
       <c r="W4">
         <v>0.5</v>
       </c>
@@ -697,6 +703,9 @@
       <c r="A6" t="s">
         <v>5</v>
       </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
       <c r="F6">
         <v>1</v>
       </c>
@@ -705,6 +714,9 @@
       </c>
       <c r="M6">
         <v>1</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
       </c>
       <c r="AC6">
         <v>1</v>
@@ -724,7 +736,7 @@
         <v>1</v>
       </c>
       <c r="J7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M7">
         <v>1</v>
@@ -746,24 +758,27 @@
       <c r="H8">
         <v>1</v>
       </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="O8">
-        <v>0.5</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="P8">
+        <v>0.8</v>
+      </c>
+      <c r="R8">
+        <v>1</v>
+      </c>
+      <c r="S8">
+        <v>1</v>
+      </c>
+      <c r="U8">
         <v>0.83333333333333337</v>
       </c>
-      <c r="R8">
-        <v>1</v>
-      </c>
-      <c r="S8">
-        <v>1</v>
-      </c>
-      <c r="U8">
-        <v>0.8571428571428571</v>
-      </c>
       <c r="Y8">
         <v>1</v>
       </c>
@@ -771,10 +786,10 @@
         <v>1</v>
       </c>
       <c r="AA8">
-        <v>0.8571428571428571</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="AB8">
-        <v>0.83333333333333337</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.25">
@@ -791,16 +806,16 @@
         <v>0.5</v>
       </c>
       <c r="W9">
-        <v>0.66666666666666663</v>
+        <v>0.625</v>
       </c>
       <c r="X9">
         <v>1</v>
       </c>
       <c r="Z9">
-        <v>0.75</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="AD9">
-        <v>0.875</v>
+        <v>0.8571428571428571</v>
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.25">
@@ -808,7 +823,10 @@
         <v>9</v>
       </c>
       <c r="G10">
-        <v>0.5</v>
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0.5</v>
@@ -816,6 +834,9 @@
       <c r="J10">
         <v>1</v>
       </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
       <c r="T10">
         <v>1</v>
       </c>
@@ -824,6 +845,9 @@
       </c>
       <c r="X10">
         <v>0.5</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
       </c>
       <c r="AD10">
         <v>1</v>
@@ -840,16 +864,16 @@
         <v>1</v>
       </c>
       <c r="O11">
-        <v>0.33333333333333331</v>
+        <v>0.5</v>
       </c>
       <c r="P11">
-        <v>0.66666666666666663</v>
+        <v>0.6</v>
       </c>
       <c r="R11">
         <v>1</v>
       </c>
       <c r="U11">
-        <v>0.8571428571428571</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="AA11">
         <v>1</v>
@@ -932,31 +956,37 @@
         <v>1</v>
       </c>
       <c r="H15">
-        <v>0.5</v>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0.33333333333333331</v>
+        <v>0.5</v>
       </c>
       <c r="O15">
         <v>1</v>
       </c>
       <c r="P15">
-        <v>0.5</v>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
       </c>
       <c r="S15">
         <v>1</v>
       </c>
       <c r="U15">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="Z15">
         <v>1</v>
       </c>
       <c r="AA15">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AB15">
-        <v>0.5</v>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.25">
@@ -970,22 +1000,22 @@
         <v>1</v>
       </c>
       <c r="H16">
-        <v>0.83333333333333337</v>
+        <v>0.8</v>
       </c>
       <c r="K16">
+        <v>0.6</v>
+      </c>
+      <c r="O16">
         <v>0.66666666666666663</v>
       </c>
-      <c r="O16">
-        <v>0.5</v>
-      </c>
       <c r="P16">
         <v>1</v>
       </c>
       <c r="R16">
-        <v>0.75</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="U16">
-        <v>0.7142857142857143</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="W16">
         <v>1</v>
@@ -994,10 +1024,10 @@
         <v>1</v>
       </c>
       <c r="AA16">
-        <v>0.66666666666666663</v>
+        <v>0.6</v>
       </c>
       <c r="AB16">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.25">
@@ -1010,6 +1040,9 @@
       <c r="E17">
         <v>1</v>
       </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
       <c r="G17">
         <v>1</v>
       </c>
@@ -1033,15 +1066,18 @@
       <c r="K18">
         <v>1</v>
       </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
       <c r="P18">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="R18">
+        <v>1</v>
+      </c>
+      <c r="U18">
         <v>0.75</v>
       </c>
-      <c r="R18">
-        <v>1</v>
-      </c>
-      <c r="U18">
-        <v>0.8</v>
-      </c>
       <c r="Y18">
         <v>0.5</v>
       </c>
@@ -1049,10 +1085,10 @@
         <v>0.5</v>
       </c>
       <c r="AA18">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AB18">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AC18">
         <v>0.5</v>
@@ -1130,19 +1166,19 @@
         <v>1</v>
       </c>
       <c r="H21">
-        <v>0.8571428571428571</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="K21">
-        <v>0.8571428571428571</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="O21">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="P21">
-        <v>0.7142857142857143</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="R21">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="T21">
         <v>1</v>
@@ -1154,13 +1190,16 @@
         <v>1</v>
       </c>
       <c r="AB21">
-        <v>0.90909090909090906</v>
+        <v>0.88888888888888884</v>
       </c>
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
       <c r="J22">
         <v>1</v>
       </c>
@@ -1175,6 +1214,9 @@
       </c>
       <c r="X22">
         <v>0.5</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
       </c>
       <c r="AD22">
         <v>1</v>
@@ -1188,7 +1230,7 @@
         <v>0.5</v>
       </c>
       <c r="I23">
-        <v>0.66666666666666663</v>
+        <v>0.625</v>
       </c>
       <c r="P23">
         <v>1</v>
@@ -1200,10 +1242,10 @@
         <v>1</v>
       </c>
       <c r="Z23">
-        <v>0.77777777777777779</v>
+        <v>0.75</v>
       </c>
       <c r="AD23">
-        <v>0.75</v>
+        <v>0.7142857142857143</v>
       </c>
     </row>
     <row r="24" spans="1:30" x14ac:dyDescent="0.25">
@@ -1281,17 +1323,23 @@
         <v>1</v>
       </c>
       <c r="I26">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>1</v>
+      </c>
+      <c r="R26">
+        <v>0.5</v>
+      </c>
+      <c r="V26">
+        <v>0</v>
+      </c>
+      <c r="W26">
         <v>0.75</v>
       </c>
-      <c r="O26">
-        <v>1</v>
-      </c>
-      <c r="R26">
-        <v>0.5</v>
-      </c>
-      <c r="W26">
-        <v>0.77777777777777779</v>
-      </c>
       <c r="Y26">
         <v>1</v>
       </c>
@@ -1302,7 +1350,7 @@
         <v>1</v>
       </c>
       <c r="AD26">
-        <v>0.7</v>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.25">
@@ -1310,19 +1358,19 @@
         <v>26</v>
       </c>
       <c r="H27">
-        <v>0.8571428571428571</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="K27">
         <v>1</v>
       </c>
       <c r="O27">
+        <v>1</v>
+      </c>
+      <c r="P27">
+        <v>0.6</v>
+      </c>
+      <c r="R27">
         <v>0.75</v>
-      </c>
-      <c r="P27">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="R27">
-        <v>0.8</v>
       </c>
       <c r="U27">
         <v>1</v>
@@ -1342,25 +1390,25 @@
         <v>1</v>
       </c>
       <c r="H28">
-        <v>0.83333333333333337</v>
+        <v>0.8</v>
       </c>
       <c r="K28">
         <v>1</v>
       </c>
       <c r="O28">
-        <v>0.5</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="P28">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="R28">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="T28">
         <v>1</v>
       </c>
       <c r="U28">
-        <v>0.90909090909090906</v>
+        <v>0.88888888888888884</v>
       </c>
       <c r="AA28">
         <v>1</v>
@@ -1412,7 +1460,7 @@
         <v>1</v>
       </c>
       <c r="I30">
-        <v>0.875</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="J30">
         <v>1</v>
@@ -1424,13 +1472,13 @@
         <v>1</v>
       </c>
       <c r="W30">
-        <v>0.75</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="X30">
         <v>1</v>
       </c>
       <c r="Z30">
-        <v>0.7</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="AC30">
         <v>1</v>

--- a/outputs/house_democrats_committee_votes.xlsx
+++ b/outputs/house_democrats_committee_votes.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14415" windowHeight="10080"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14415" windowHeight="9180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/outputs/house_democrats_committee_votes.xlsx
+++ b/outputs/house_democrats_committee_votes.xlsx
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>0.5</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="O3">
-        <v>0.5</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="S3">
-        <v>0.7142857142857143</v>
+        <v>0.6</v>
       </c>
       <c r="T3">
         <v>1</v>
@@ -663,7 +663,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>0.5</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D5">
         <v>0.5</v>
@@ -800,22 +800,22 @@
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="T9">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="W9">
-        <v>0.625</v>
+        <v>0.5</v>
       </c>
       <c r="X9">
         <v>1</v>
       </c>
       <c r="Z9">
-        <v>0.7142857142857143</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="AD9">
-        <v>0.8571428571428571</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.25">
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -844,7 +844,7 @@
         <v>1</v>
       </c>
       <c r="X10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="Z10">
         <v>0</v>
@@ -950,7 +950,7 @@
         <v>14</v>
       </c>
       <c r="C15">
-        <v>0.5</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1099,7 +1099,7 @@
         <v>18</v>
       </c>
       <c r="C19">
-        <v>0.7142857142857143</v>
+        <v>0.6</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -1131,7 +1131,7 @@
         <v>0.5</v>
       </c>
       <c r="I20">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J20">
         <v>1</v>
@@ -1152,7 +1152,7 @@
         <v>1</v>
       </c>
       <c r="X20">
-        <v>0.33333333333333331</v>
+        <v>0.5</v>
       </c>
       <c r="AB20">
         <v>1</v>
@@ -1190,7 +1190,7 @@
         <v>1</v>
       </c>
       <c r="AB21">
-        <v>0.88888888888888884</v>
+        <v>0.8571428571428571</v>
       </c>
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.25">
@@ -1230,7 +1230,7 @@
         <v>0.5</v>
       </c>
       <c r="I23">
-        <v>0.625</v>
+        <v>0.5</v>
       </c>
       <c r="P23">
         <v>1</v>
@@ -1242,10 +1242,10 @@
         <v>1</v>
       </c>
       <c r="Z23">
-        <v>0.75</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="AD23">
-        <v>0.7142857142857143</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="24" spans="1:30" x14ac:dyDescent="0.25">
@@ -1256,10 +1256,10 @@
         <v>1</v>
       </c>
       <c r="J24">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="T24">
-        <v>0.33333333333333331</v>
+        <v>0.5</v>
       </c>
       <c r="V24">
         <v>0.5</v>
@@ -1323,23 +1323,23 @@
         <v>1</v>
       </c>
       <c r="I26">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>1</v>
+      </c>
+      <c r="R26">
+        <v>0.5</v>
+      </c>
+      <c r="V26">
+        <v>0</v>
+      </c>
+      <c r="W26">
         <v>0.7142857142857143</v>
       </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-      <c r="O26">
-        <v>1</v>
-      </c>
-      <c r="R26">
-        <v>0.5</v>
-      </c>
-      <c r="V26">
-        <v>0</v>
-      </c>
-      <c r="W26">
-        <v>0.75</v>
-      </c>
       <c r="Y26">
         <v>1</v>
       </c>
@@ -1350,7 +1350,7 @@
         <v>1</v>
       </c>
       <c r="AD26">
-        <v>0.66666666666666663</v>
+        <v>0.5714285714285714</v>
       </c>
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.25">
@@ -1408,7 +1408,7 @@
         <v>1</v>
       </c>
       <c r="U28">
-        <v>0.88888888888888884</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="AA28">
         <v>1</v>
@@ -1460,7 +1460,7 @@
         <v>1</v>
       </c>
       <c r="I30">
-        <v>0.8571428571428571</v>
+        <v>0.8</v>
       </c>
       <c r="J30">
         <v>1</v>
@@ -1472,13 +1472,13 @@
         <v>1</v>
       </c>
       <c r="W30">
-        <v>0.7142857142857143</v>
+        <v>0.6</v>
       </c>
       <c r="X30">
         <v>1</v>
       </c>
       <c r="Z30">
-        <v>0.66666666666666663</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="AC30">
         <v>1</v>
